--- a/finalDocs/RM_second.xlsx
+++ b/finalDocs/RM_second.xlsx
@@ -13,10 +13,10 @@
     <sheet name="Statistics" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Traceability Matrix'!$A$1:$K$13</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Traceability Matrix'!$A$1:$K$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">'Traceability Matrix'!$A$1:$K$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0" vbProcedure="false">'Traceability Matrix'!$A$1:$K$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Traceability Matrix'!$A$1:$K$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Traceability Matrix'!$A$1:$K$13</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -237,7 +237,7 @@
     <t xml:space="preserve">FLT-1.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Testing Single Fault Scenario</t>
+    <t xml:space="preserve">Simulating Single Fault Scenario</t>
   </si>
   <si>
     <t xml:space="preserve">6.3.3.1</t>
@@ -249,7 +249,7 @@
     <t xml:space="preserve">FLT-1.2</t>
   </si>
   <si>
-    <t xml:space="preserve">Testing Multiple Fault Scenario</t>
+    <t xml:space="preserve">Simulating Multiple Fault Scenario</t>
   </si>
   <si>
     <t xml:space="preserve">6.3.3.2</t>
@@ -553,8 +553,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -953,7 +952,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -1056,71 +1055,6 @@
         <diagonal/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <diagonal/>
-      </border>
-    </dxf>
   </dxfs>
   <colors>
     <indexedColors>
@@ -1185,7 +1119,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1415,7 +1349,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1537,11 +1471,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="58619463"/>
-        <c:axId val="80968397"/>
+        <c:axId val="1542705"/>
+        <c:axId val="84050412"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="58619463"/>
+        <c:axId val="1542705"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1573,14 +1507,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80968397"/>
+        <c:crossAx val="84050412"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80968397"/>
+        <c:axId val="84050412"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1619,7 +1553,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58619463"/>
+        <c:crossAx val="1542705"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1660,9 +1594,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>17640</xdr:colOff>
+      <xdr:colOff>17280</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1670,8 +1604,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="80640" y="1419120"/>
-        <a:ext cx="5549760" cy="2951280"/>
+        <a:off x="79920" y="1419120"/>
+        <a:ext cx="5549400" cy="2950920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1690,9 +1624,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>550800</xdr:colOff>
+      <xdr:colOff>550440</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1700,8 +1634,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5733360" y="152280"/>
-        <a:ext cx="5833800" cy="4218120"/>
+        <a:off x="5732640" y="152280"/>
+        <a:ext cx="5833440" cy="4217760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1719,7 +1653,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1048576"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
@@ -1732,7 +1666,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="1.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="2" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="7" style="2" width="8.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="2" width="16.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="2" width="16.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2326,7 +2260,6 @@
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
     </row>
-    <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <sheetProtection sheet="true" password="dcc7" objects="true" scenarios="true"/>
   <mergeCells count="1">
@@ -2365,27 +2298,27 @@
   <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="8.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="8.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="12" style="0" width="8.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="22" style="0" width="8.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="22" style="0" width="8.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3064,7 +2997,7 @@
       <c r="K16" s="42"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K13"/>
+  <autoFilter ref="A1:K1"/>
   <conditionalFormatting sqref="H2:H209">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"In Progress"</formula>
@@ -3081,17 +3014,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"In-progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H13 H14:H16">
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3129,7 +3062,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="1.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="1.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.71"/>
@@ -3137,7 +3070,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="1.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="11" style="0" width="8.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="21" style="0" width="8.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="21" style="0" width="8.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/finalDocs/RM_second.xlsx
+++ b/finalDocs/RM_second.xlsx
@@ -13,10 +13,9 @@
     <sheet name="Statistics" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Traceability Matrix'!$A$1:$K$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Traceability Matrix'!$A$1:$K$13</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">'Traceability Matrix'!$A$1:$K$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0" vbProcedure="false">'Traceability Matrix'!$A$1:$K$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Traceability Matrix'!$A$1:$K$13</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="126">
   <si>
     <t xml:space="preserve">Instructions For Completing This Document</t>
   </si>
@@ -156,7 +155,7 @@
     <t xml:space="preserve">BNM</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3.1</t>
+    <t xml:space="preserve">5.3.1</t>
   </si>
   <si>
     <t xml:space="preserve">T-BNM-1</t>
@@ -171,7 +170,7 @@
     <t xml:space="preserve">Model Boolean Network</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3.1.2</t>
+    <t xml:space="preserve">5.3.1.1</t>
   </si>
   <si>
     <t xml:space="preserve">T-BNM-1.1</t>
@@ -180,6 +179,9 @@
     <t xml:space="preserve">Python</t>
   </si>
   <si>
+    <t xml:space="preserve">pathway_normal.py, pathway_drugged,py, pathway_custom.py</t>
+  </si>
+  <si>
     <t xml:space="preserve">UNQ-1</t>
   </si>
   <si>
@@ -189,7 +191,7 @@
     <t xml:space="preserve">UNQ</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3.2</t>
+    <t xml:space="preserve">5.3.2</t>
   </si>
   <si>
     <t xml:space="preserve">T-UNQ-1</t>
@@ -201,19 +203,22 @@
     <t xml:space="preserve">Executing Fault-less Boolean Network</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3.2.1</t>
+    <t xml:space="preserve">5.3.2.1</t>
   </si>
   <si>
     <t xml:space="preserve">T-UNQ-1.1</t>
   </si>
   <si>
+    <t xml:space="preserve">fault_zero.py</t>
+  </si>
+  <si>
     <t xml:space="preserve">UNQ-1.2</t>
   </si>
   <si>
     <t xml:space="preserve">Realisation of Unique Input Vector</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3.2.2</t>
+    <t xml:space="preserve">5.3.2.2</t>
   </si>
   <si>
     <t xml:space="preserve">T-UNQ-1.2</t>
@@ -228,7 +233,7 @@
     <t xml:space="preserve">FLT</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3.3</t>
+    <t xml:space="preserve">5.3.3</t>
   </si>
   <si>
     <t xml:space="preserve">T-FLT-1</t>
@@ -240,24 +245,30 @@
     <t xml:space="preserve">Simulating Single Fault Scenario</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3.3.1</t>
+    <t xml:space="preserve">5.3.3.1</t>
   </si>
   <si>
     <t xml:space="preserve">T-FLT-1.1</t>
   </si>
   <si>
+    <t xml:space="preserve">fault_one.py</t>
+  </si>
+  <si>
     <t xml:space="preserve">FLT-1.2</t>
   </si>
   <si>
     <t xml:space="preserve">Simulating Multiple Fault Scenario</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3.3.2</t>
+    <t xml:space="preserve">5.3.3.2</t>
   </si>
   <si>
     <t xml:space="preserve">T-FLT-1.2</t>
   </si>
   <si>
+    <t xml:space="preserve">fault_two.py, fault_three.py</t>
+  </si>
+  <si>
     <t xml:space="preserve">DRG-1</t>
   </si>
   <si>
@@ -267,7 +278,7 @@
     <t xml:space="preserve">DRG</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3.4</t>
+    <t xml:space="preserve">5.3.4</t>
   </si>
   <si>
     <t xml:space="preserve">T-DRG-1</t>
@@ -279,25 +290,31 @@
     <t xml:space="preserve">Generate Optimum Drug Combination for Single Fault Scenario</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3.4.1</t>
+    <t xml:space="preserve">5.3.4.1</t>
   </si>
   <si>
     <t xml:space="preserve">T-DRG-1.1</t>
   </si>
   <si>
+    <t xml:space="preserve">drug_one.py</t>
+  </si>
+  <si>
     <t xml:space="preserve">DRG-1.2</t>
   </si>
   <si>
     <t xml:space="preserve">Generate Optimum Drug Combination for Multiple Fault Scenario</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3.4.2</t>
+    <t xml:space="preserve">5.3.4.2</t>
   </si>
   <si>
     <t xml:space="preserve">T-DRG-1.2</t>
   </si>
   <si>
-    <t xml:space="preserve">Python, C</t>
+    <t xml:space="preserve">Python, CUDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drug_two.py, drug_three.py</t>
   </si>
   <si>
     <t xml:space="preserve">DRG-1.3</t>
@@ -306,12 +323,15 @@
     <t xml:space="preserve">Visualisation of Effect of Drug Combination</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3.4.3</t>
+    <t xml:space="preserve">5.3.4.3</t>
   </si>
   <si>
     <t xml:space="preserve">T-DRG-1.3</t>
   </si>
   <si>
+    <t xml:space="preserve">visual_drugone.py, visual_drugtwo.py, visual_drugthree.py</t>
+  </si>
+  <si>
     <t xml:space="preserve">CUS -1</t>
   </si>
   <si>
@@ -321,6 +341,9 @@
     <t xml:space="preserve">CUS</t>
   </si>
   <si>
+    <t xml:space="preserve">5.3.5</t>
+  </si>
+  <si>
     <t xml:space="preserve">T-CUS-1</t>
   </si>
   <si>
@@ -330,16 +353,28 @@
     <t xml:space="preserve">Simulating Binodal Drugs on Single Faults</t>
   </si>
   <si>
+    <t xml:space="preserve">5.3.5.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">T-CUS-1.1</t>
   </si>
   <si>
+    <t xml:space="preserve">drug_custom.py</t>
+  </si>
+  <si>
     <t xml:space="preserve">CUS-1.2</t>
   </si>
   <si>
     <t xml:space="preserve">Visualisation and Identification of More Efficient Drugs</t>
   </si>
   <si>
+    <t xml:space="preserve">5.3.5.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">T-CUS-1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visual_drugone.py</t>
   </si>
   <si>
     <t xml:space="preserve">Read Only</t>
@@ -553,7 +588,8 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -710,7 +746,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="54">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -760,47 +796,47 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -812,75 +848,59 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -952,7 +972,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -1045,6 +1065,74 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="false" diagonalDown="false">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="false" diagonalDown="false">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="false" diagonalDown="false">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="false" diagonalDown="false">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
       <border diagonalUp="false" diagonalDown="false">
@@ -1336,7 +1424,7 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="0"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1448,7 +1536,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>15</c:v>
@@ -1460,7 +1548,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1471,11 +1559,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1542705"/>
-        <c:axId val="84050412"/>
+        <c:axId val="22041711"/>
+        <c:axId val="33105736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1542705"/>
+        <c:axId val="22041711"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1507,14 +1595,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84050412"/>
+        <c:crossAx val="33105736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84050412"/>
+        <c:axId val="33105736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1553,7 +1641,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1542705"/>
+        <c:crossAx val="22041711"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1594,9 +1682,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>17280</xdr:colOff>
+      <xdr:colOff>16920</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>160200</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1604,8 +1692,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="79920" y="1419120"/>
-        <a:ext cx="5549400" cy="2950920"/>
+        <a:off x="80640" y="1419120"/>
+        <a:ext cx="5549040" cy="2950560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1624,9 +1712,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>550440</xdr:colOff>
+      <xdr:colOff>550080</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>160200</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1634,8 +1722,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5732640" y="152280"/>
-        <a:ext cx="5833440" cy="4217760"/>
+        <a:off x="5733360" y="152280"/>
+        <a:ext cx="5833080" cy="4217400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1666,7 +1754,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="1.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="2" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="7" style="2" width="8.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="2" width="16.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="2" width="16.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2302,23 +2390,24 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.87"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="8.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="12" style="0" width="8.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="22" style="0" width="8.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="22" style="0" width="8.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2371,7 +2460,7 @@
       <c r="Y1" s="24"/>
       <c r="Z1" s="24"/>
     </row>
-    <row r="2" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="32" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
         <v>36</v>
       </c>
@@ -2384,36 +2473,36 @@
       <c r="D2" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="28" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="27"/>
       <c r="H2" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-    </row>
-    <row r="3" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+    </row>
+    <row r="3" s="32" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
         <v>43</v>
       </c>
@@ -2426,10 +2515,10 @@
       <c r="D3" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="28" t="s">
         <v>46</v>
       </c>
       <c r="G3" s="27" t="s">
@@ -2438,85 +2527,87 @@
       <c r="H3" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-    </row>
-    <row r="4" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I3" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+    </row>
+    <row r="4" s="32" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="E4" s="26" t="s">
         <v>52</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>53</v>
       </c>
       <c r="G4" s="27"/>
       <c r="H4" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+    </row>
+    <row r="5" s="32" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="26" t="s">
         <v>56</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="G5" s="27" t="s">
         <v>47</v>
@@ -2524,43 +2615,45 @@
       <c r="H5" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I5" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
+    </row>
+    <row r="6" s="32" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>62</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>47</v>
@@ -2568,85 +2661,87 @@
       <c r="H6" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="24"/>
-    </row>
-    <row r="7" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+    </row>
+    <row r="7" s="32" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="29" t="s">
         <v>65</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>67</v>
       </c>
       <c r="G7" s="27"/>
       <c r="H7" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="24"/>
-    </row>
-    <row r="8" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
+    </row>
+    <row r="8" s="32" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>69</v>
+        <v>65</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>71</v>
       </c>
       <c r="G8" s="27" t="s">
         <v>47</v>
@@ -2654,43 +2749,45 @@
       <c r="H8" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="24"/>
-    </row>
-    <row r="9" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I8" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
+    </row>
+    <row r="9" s="32" customFormat="true" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="25" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>73</v>
+        <v>65</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>76</v>
       </c>
       <c r="G9" s="27" t="s">
         <v>47</v>
@@ -2698,85 +2795,87 @@
       <c r="H9" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I9" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
+    </row>
+    <row r="10" s="32" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="25" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>82</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="24"/>
-    </row>
-    <row r="11" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+    </row>
+    <row r="11" s="32" customFormat="true" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="25" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>82</v>
+        <v>80</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>86</v>
       </c>
       <c r="G11" s="27" t="s">
         <v>47</v>
@@ -2784,87 +2883,91 @@
       <c r="H11" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="24"/>
-    </row>
-    <row r="12" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I11" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
+    </row>
+    <row r="12" s="32" customFormat="true" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="25" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>91</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H12" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="24"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I12" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
+    </row>
+    <row r="13" s="32" customFormat="true" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>89</v>
+        <v>94</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>95</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>91</v>
+        <v>80</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>97</v>
       </c>
       <c r="G13" s="27" t="s">
         <v>47</v>
@@ -2872,79 +2975,87 @@
       <c r="H13" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="36"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I13" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" s="29"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
+    </row>
+    <row r="14" s="32" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>93</v>
+        <v>99</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>100</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="35" t="s">
-        <v>95</v>
+        <v>101</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="36"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="24"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I14" s="27"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
+    </row>
+    <row r="15" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>97</v>
+        <v>104</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>105</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="29" t="s">
-        <v>98</v>
+      <c r="D15" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>107</v>
       </c>
       <c r="G15" s="27" t="s">
         <v>47</v>
@@ -2952,52 +3063,60 @@
       <c r="H15" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="38"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="24"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>100</v>
+      <c r="I15" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+    </row>
+    <row r="16" s="32" customFormat="true" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>110</v>
       </c>
       <c r="C16" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="41" t="s">
+      <c r="D16" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="42" t="s">
+      <c r="E16" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="38" t="s">
         <v>47</v>
       </c>
       <c r="H16" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
+      <c r="I16" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1"/>
+  <autoFilter ref="A1:K13"/>
   <conditionalFormatting sqref="H2:H209">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"In Progress"</formula>
@@ -3014,17 +3133,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"In-progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H13 H14:H16">
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3062,7 +3181,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="1.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="1.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.71"/>
@@ -3070,25 +3189,25 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="1.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="11" style="0" width="8.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="21" style="0" width="8.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="21" style="0" width="8.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="43"/>
-      <c r="B1" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="K1" s="43"/>
+      <c r="A1" s="39"/>
+      <c r="B1" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="39"/>
       <c r="L1" s="24"/>
       <c r="M1" s="24"/>
       <c r="N1" s="24"/>
@@ -3106,22 +3225,22 @@
       <c r="Z1" s="24"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="43"/>
-      <c r="B2" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="48" t="n">
+      <c r="A2" s="39"/>
+      <c r="B2" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="44" t="n">
         <f aca="false">COUNTIF('Traceability Matrix'!B:B,"&gt; ")-1</f>
         <v>15</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
       <c r="L2" s="24"/>
       <c r="M2" s="24"/>
       <c r="N2" s="24"/>
@@ -3139,22 +3258,22 @@
       <c r="Z2" s="24"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="43"/>
-      <c r="B3" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="48" t="n">
+      <c r="A3" s="39"/>
+      <c r="B3" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="44" t="n">
         <f aca="false">COUNTIF('Traceability Matrix'!E:E,"&gt; ")-1-COUNTIF('Traceability Matrix'!E:E,"tbd")-COUNTIF('Traceability Matrix'!E:E,"to be done")--COUNTIF('Traceability Matrix'!E:E,"on hold")-COUNTIF('Traceability Matrix'!E:E,"hold")-COUNTIF('Traceability Matrix'!E:E,".")--COUNTIF('Traceability Matrix'!E:E,"-")-COUNTIF('Traceability Matrix'!E:E,"ok")--COUNTIF('Traceability Matrix'!E:E,"yes")--COUNTIF('Traceability Matrix'!E:E,"no")</f>
-        <v>12</v>
-      </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
+        <v>15</v>
+      </c>
+      <c r="D3" s="46"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
       <c r="L3" s="24"/>
       <c r="M3" s="24"/>
       <c r="N3" s="24"/>
@@ -3172,25 +3291,25 @@
       <c r="Z3" s="24"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="43"/>
-      <c r="B4" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="48" t="n">
+      <c r="A4" s="39"/>
+      <c r="B4" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="44" t="n">
         <f aca="false">COUNTIF('Traceability Matrix'!F:F,"&gt; ")-1-COUNTIF('Traceability Matrix'!F:F,"tbd")-COUNTIF('Traceability Matrix'!F:F,"to be done")--COUNTIF('Traceability Matrix'!F:F,"on hold")-COUNTIF('Traceability Matrix'!F:F,"hold")-COUNTIF('Traceability Matrix'!F:F,".")--COUNTIF('Traceability Matrix'!F:F,"-")-COUNTIF('Traceability Matrix'!F:F,"ok")--COUNTIF('Traceability Matrix'!F:F,"yes")--COUNTIF('Traceability Matrix'!F:F,"no")</f>
         <v>15</v>
       </c>
-      <c r="D4" s="50" t="str">
+      <c r="D4" s="46" t="str">
         <f aca="false">IF(C4&gt;C$3,"Fill design details!","")</f>
-        <v>Fill design details!</v>
-      </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
+        <v/>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
       <c r="N4" s="24"/>
@@ -3208,22 +3327,22 @@
       <c r="Z4" s="24"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="43"/>
-      <c r="B5" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="48" t="n">
+      <c r="A5" s="39"/>
+      <c r="B5" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="44" t="n">
         <f aca="false">COUNTIF('Traceability Matrix'!G:G,"&gt; ")-1-COUNTIF('Traceability Matrix'!G:G,"tbd")-COUNTIF('Traceability Matrix'!G:G,"to be done")--COUNTIF('Traceability Matrix'!G:G,"on hold")-COUNTIF('Traceability Matrix'!G:G,"hold")-COUNTIF('Traceability Matrix'!G:G,".")--COUNTIF('Traceability Matrix'!G:G,"-")-COUNTIF('Traceability Matrix'!G:G,"ok")--COUNTIF('Traceability Matrix'!G:G,"yes")--COUNTIF('Traceability Matrix'!G:G,"no")</f>
         <v>10</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
       <c r="L5" s="24"/>
       <c r="M5" s="24"/>
       <c r="N5" s="24"/>
@@ -3241,25 +3360,25 @@
       <c r="Z5" s="24"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="43"/>
-      <c r="B6" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="52" t="n">
+      <c r="A6" s="39"/>
+      <c r="B6" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="48" t="n">
         <f aca="false">COUNTIF('Traceability Matrix'!H:H,"Yes")</f>
         <v>15</v>
       </c>
-      <c r="D6" s="50" t="str">
+      <c r="D6" s="46" t="str">
         <f aca="false">IF(C6&gt;C$3,"Fill design details!","")</f>
-        <v>Fill design details!</v>
-      </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
+        <v/>
+      </c>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
       <c r="L6" s="24"/>
       <c r="M6" s="24"/>
       <c r="N6" s="24"/>
@@ -3277,25 +3396,25 @@
       <c r="Z6" s="24"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="43"/>
-      <c r="B7" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="53" t="n">
+      <c r="A7" s="39"/>
+      <c r="B7" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="49" t="n">
         <f aca="false">COUNTIF('Traceability Matrix'!I:I,"&gt; ")-1-COUNTIF('Traceability Matrix'!I:I,"tbd")-COUNTIF('Traceability Matrix'!I:I,"to be done")--COUNTIF('Traceability Matrix'!I:I,"on hold")-COUNTIF('Traceability Matrix'!I:I,"hold")-COUNTIF('Traceability Matrix'!I:I,".")--COUNTIF('Traceability Matrix'!I:I,"-")-COUNTIF('Traceability Matrix'!I:I,"ok")--COUNTIF('Traceability Matrix'!I:I,"yes")--COUNTIF('Traceability Matrix'!I:I,"no")</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="50" t="str">
+        <v>10</v>
+      </c>
+      <c r="D7" s="46" t="str">
         <f aca="false">IF(C7&gt;C$3,"Fill design details!","")</f>
         <v/>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
       <c r="L7" s="24"/>
       <c r="M7" s="24"/>
       <c r="N7" s="24"/>
@@ -3313,22 +3432,22 @@
       <c r="Z7" s="24"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="43"/>
-      <c r="B8" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="53" t="n">
+      <c r="A8" s="39"/>
+      <c r="B8" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="49" t="n">
         <f aca="false">COUNTIF('Traceability Matrix'!J:J,"&gt; ")-1-COUNTIF('Traceability Matrix'!J:J,"tbd")-COUNTIF('Traceability Matrix'!J:J,"to be done")--COUNTIF('Traceability Matrix'!J:J,"on hold")-COUNTIF('Traceability Matrix'!J:J,"hold")-COUNTIF('Traceability Matrix'!J:J,".")--COUNTIF('Traceability Matrix'!J:J,"-")-COUNTIF('Traceability Matrix'!J:J,"ok")--COUNTIF('Traceability Matrix'!J:J,"yes")--COUNTIF('Traceability Matrix'!J:J,"no")</f>
         <v>0</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
       <c r="N8" s="24"/>
@@ -3346,17 +3465,17 @@
       <c r="Z8" s="24"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="43"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
       <c r="N9" s="24"/>
@@ -3374,22 +3493,22 @@
       <c r="Z9" s="24"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="43"/>
-      <c r="B10" s="55" t="s">
+      <c r="A10" s="39"/>
+      <c r="B10" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="56" t="n">
+      <c r="C10" s="52" t="n">
         <f aca="false">COUNTIF('Traceability Matrix'!C:C,B10)</f>
         <v>15</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
       <c r="L10" s="24"/>
       <c r="M10" s="24"/>
       <c r="N10" s="24"/>
@@ -3407,22 +3526,22 @@
       <c r="Z10" s="24"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="43"/>
-      <c r="B11" s="57" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="56" t="n">
+      <c r="A11" s="39"/>
+      <c r="B11" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="52" t="n">
         <f aca="false">COUNTIF('Traceability Matrix'!C:C,B11)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
       <c r="N11" s="24"/>
@@ -3440,22 +3559,22 @@
       <c r="Z11" s="24"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="43"/>
-      <c r="B12" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="56" t="n">
+      <c r="A12" s="39"/>
+      <c r="B12" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="52" t="n">
         <f aca="false">COUNTIF('Traceability Matrix'!C:C,B12)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
       <c r="N12" s="24"/>
@@ -3473,22 +3592,22 @@
       <c r="Z12" s="24"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="43"/>
-      <c r="B13" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="56" t="n">
+      <c r="A13" s="39"/>
+      <c r="B13" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="52" t="n">
         <f aca="false">COUNTIF('Traceability Matrix'!C:C,B13)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
       <c r="L13" s="24"/>
       <c r="M13" s="24"/>
       <c r="N13" s="24"/>
